--- a/borrowing_report.xlsx
+++ b/borrowing_report.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -431,7 +431,7 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B2" t="str">
         <v>books_56</v>
@@ -440,24 +440,50 @@
         <v>wed15s1</v>
       </c>
       <c r="D2" t="str">
-        <v>sd658</v>
+        <v>s88858</v>
       </c>
       <c r="E2" s="1">
         <v>45258.0834375</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G2" t="str">
         <v>wemoa</v>
       </c>
       <c r="H2" t="str">
+        <v>wew954e@gmail.com</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3">
+        <v>5</v>
+      </c>
+      <c r="B3" t="str">
+        <v>books_56</v>
+      </c>
+      <c r="C3" t="str">
+        <v>wed15s1</v>
+      </c>
+      <c r="D3" t="str">
+        <v>s89858</v>
+      </c>
+      <c r="E3" s="1">
+        <v>45258.0834375</v>
+      </c>
+      <c r="F3">
+        <v>6</v>
+      </c>
+      <c r="G3" t="str">
+        <v>wemoa</v>
+      </c>
+      <c r="H3" t="str">
         <v>wew954e@gmail.com</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:H2"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:H3"/>
   </ignoredErrors>
 </worksheet>
 </file>